--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/02/08</t>
   </si>
   <si>
     <t>2022/02/07</t>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -712,6 +715,23 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/02/09</t>
   </si>
   <si>
     <t>2022/02/08</t>
@@ -450,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -732,6 +735,23 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/02/10</t>
   </si>
   <si>
     <t>2022/02/09</t>
@@ -453,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -752,6 +755,23 @@
         <v>0</v>
       </c>
       <c r="E18" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/02/11</t>
   </si>
   <si>
     <t>2022/02/10</t>
@@ -456,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -772,6 +775,23 @@
         <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/03/31</t>
+  </si>
+  <si>
+    <t>2022/03/19</t>
+  </si>
+  <si>
+    <t>2022/03/03</t>
+  </si>
+  <si>
+    <t>2022/02/26</t>
   </si>
   <si>
     <t>2022/02/11</t>
@@ -459,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -792,6 +804,74 @@
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/04/02</t>
   </si>
   <si>
     <t>2022/03/31</t>
@@ -471,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -872,6 +875,23 @@
         <v>0</v>
       </c>
       <c r="E24" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/04/06</t>
   </si>
   <si>
     <t>2022/04/02</t>
@@ -474,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -892,6 +895,23 @@
         <v>0</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/04/07</t>
   </si>
   <si>
     <t>2022/04/06</t>
@@ -477,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -912,6 +915,23 @@
         <v>0</v>
       </c>
       <c r="E26" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/04/08</t>
   </si>
   <si>
     <t>2022/04/07</t>
@@ -480,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -932,6 +935,23 @@
         <v>0</v>
       </c>
       <c r="E27" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/04/25</t>
+  </si>
+  <si>
+    <t>2022/04/14</t>
+  </si>
+  <si>
+    <t>2022/04/11</t>
+  </si>
+  <si>
+    <t>2022/04/09</t>
   </si>
   <si>
     <t>2022/04/08</t>
@@ -483,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -952,6 +964,74 @@
         <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/04/26</t>
   </si>
   <si>
     <t>2022/04/25</t>
@@ -495,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -1032,6 +1035,23 @@
         <v>0</v>
       </c>
       <c r="E32" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>数据统计</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/04/29</t>
+  </si>
+  <si>
+    <t>2022/04/28</t>
+  </si>
+  <si>
+    <t>2022/04/27</t>
   </si>
   <si>
     <t>2022/04/26</t>
@@ -1210,7 +1219,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1262,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -1276,13 +1285,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -1293,13 +1302,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
@@ -1310,13 +1319,13 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0">
-        <v>203525</v>
+        <v>173922</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
@@ -1327,13 +1336,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0">
-        <v>20395</v>
+        <v>243923</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -1344,13 +1353,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0">
-        <v>123927</v>
+        <v>213924</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1361,13 +1370,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0">
-        <v>233928</v>
+        <v>203525</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -1378,13 +1387,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0">
-        <v>243929</v>
+        <v>20395</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -1395,13 +1404,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="0">
-        <v>123930</v>
+        <v>123927</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -1412,13 +1421,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0">
-        <v>113931</v>
+        <v>233928</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -1429,13 +1438,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0">
-        <v>143932</v>
+        <v>243929</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -1446,13 +1455,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0">
-        <v>156933</v>
+        <v>123930</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -1463,13 +1472,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="0">
-        <v>203934</v>
+        <v>113931</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -1480,13 +1489,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0">
-        <v>203935</v>
+        <v>143932</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -1497,13 +1506,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0">
-        <v>203936</v>
+        <v>156933</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -1514,13 +1523,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0">
-        <v>203937</v>
+        <v>203934</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -1531,13 +1540,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0">
-        <v>203938</v>
+        <v>203935</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -1548,13 +1557,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0">
-        <v>203939</v>
+        <v>203936</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -1565,13 +1574,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0">
-        <v>203940</v>
+        <v>203937</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -1582,13 +1591,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0">
-        <v>203941</v>
+        <v>203938</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -1599,13 +1608,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0">
-        <v>203942</v>
+        <v>203939</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -1616,13 +1625,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0">
-        <v>203943</v>
+        <v>203940</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -1633,13 +1642,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0">
-        <v>203944</v>
+        <v>203941</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1650,13 +1659,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" s="0">
-        <v>203945</v>
+        <v>203942</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1667,13 +1676,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="0">
-        <v>203946</v>
+        <v>203943</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1684,13 +1693,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" s="0">
-        <v>203947</v>
+        <v>203944</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1701,13 +1710,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0">
-        <v>0</v>
+        <v>203945</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1718,13 +1727,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0">
-        <v>0</v>
+        <v>203946</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1735,13 +1744,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B32" s="0">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0">
-        <v>0</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1764,6 +1773,57 @@
         <v>0</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>数据统计</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/05/06</t>
+  </si>
+  <si>
+    <t>2022/05/05</t>
   </si>
   <si>
     <t>2022/04/29</t>
@@ -1219,7 +1225,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1322,10 +1328,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
       </c>
       <c r="D7" s="0">
         <v>0</v>
@@ -1336,13 +1342,13 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
@@ -1353,13 +1359,13 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0">
-        <v>213924</v>
+        <v>173922</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1370,13 +1376,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0">
-        <v>203525</v>
+        <v>243923</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -1387,13 +1393,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="0">
-        <v>20395</v>
+        <v>213924</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -1404,13 +1410,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="0">
-        <v>123927</v>
+        <v>203525</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -1421,13 +1427,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="0">
-        <v>233928</v>
+        <v>20395</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -1438,13 +1444,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="0">
-        <v>243929</v>
+        <v>123927</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -1455,13 +1461,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="0">
-        <v>123930</v>
+        <v>233928</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -1472,13 +1478,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0">
-        <v>113931</v>
+        <v>243929</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -1489,13 +1495,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0">
-        <v>143932</v>
+        <v>123930</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -1506,13 +1512,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0">
-        <v>156933</v>
+        <v>113931</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -1523,13 +1529,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0">
-        <v>203934</v>
+        <v>143932</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -1540,13 +1546,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0">
-        <v>203935</v>
+        <v>156933</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -1557,13 +1563,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0">
-        <v>203936</v>
+        <v>203934</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -1574,13 +1580,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0">
-        <v>203937</v>
+        <v>203935</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -1591,13 +1597,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="0">
-        <v>203938</v>
+        <v>203936</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -1608,13 +1614,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0">
-        <v>203939</v>
+        <v>203937</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -1625,13 +1631,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0">
-        <v>203940</v>
+        <v>203938</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -1642,13 +1648,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0">
-        <v>203941</v>
+        <v>203939</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1659,13 +1665,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" s="0">
-        <v>203942</v>
+        <v>203940</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1676,13 +1682,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B28" s="0">
-        <v>203943</v>
+        <v>203941</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1693,13 +1699,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" s="0">
-        <v>203944</v>
+        <v>203942</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1710,13 +1716,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="0">
-        <v>203945</v>
+        <v>203943</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1727,13 +1733,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="0">
-        <v>203946</v>
+        <v>203944</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1744,13 +1750,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="0">
-        <v>203947</v>
+        <v>203945</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1761,13 +1767,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0">
-        <v>0</v>
+        <v>203946</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1778,13 +1784,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" s="0">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0">
-        <v>0</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1824,6 +1830,40 @@
         <v>0</v>
       </c>
       <c r="E36" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>数据统计</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/05/12</t>
   </si>
   <si>
     <t>2022/05/06</t>
@@ -1225,7 +1228,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1362,10 +1365,10 @@
         <v>14</v>
       </c>
       <c r="B9" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0</v>
       </c>
       <c r="D9" s="0">
         <v>0</v>
@@ -1376,13 +1379,13 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -1393,13 +1396,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -1410,13 +1413,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -1427,13 +1430,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -1444,13 +1447,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B14" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -1461,13 +1464,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -1478,13 +1481,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -1495,13 +1498,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -1512,13 +1515,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -1529,13 +1532,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -1546,13 +1549,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -1563,13 +1566,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -1580,13 +1583,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -1597,13 +1600,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -1614,13 +1617,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B24" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -1631,13 +1634,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B25" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -1648,13 +1651,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1665,13 +1668,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1682,13 +1685,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1699,13 +1702,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1716,13 +1719,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1733,13 +1736,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1750,13 +1753,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B32" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1767,13 +1770,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B33" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1784,13 +1787,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B34" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1801,13 +1804,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B35" s="0">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0">
-        <v>0</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1864,6 +1867,23 @@
         <v>0</v>
       </c>
       <c r="E38" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>数据统计</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/05/20</t>
+  </si>
+  <si>
+    <t>2022/05/19</t>
   </si>
   <si>
     <t>2022/05/12</t>
@@ -1228,7 +1234,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1382,10 +1388,10 @@
         <v>15</v>
       </c>
       <c r="B10" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -1396,13 +1402,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0</v>
       </c>
       <c r="D11" s="0">
         <v>0</v>
@@ -1413,13 +1419,13 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0">
-        <v>213924</v>
+        <v>173922</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -1430,13 +1436,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="0">
-        <v>203525</v>
+        <v>243923</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -1447,13 +1453,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0">
-        <v>20395</v>
+        <v>213924</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -1464,13 +1470,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0">
-        <v>123927</v>
+        <v>203525</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -1481,13 +1487,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0">
-        <v>233928</v>
+        <v>20395</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -1498,13 +1504,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="0">
-        <v>243929</v>
+        <v>123927</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -1515,13 +1521,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="0">
-        <v>123930</v>
+        <v>233928</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -1532,13 +1538,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0">
-        <v>113931</v>
+        <v>243929</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -1549,13 +1555,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" s="0">
-        <v>143932</v>
+        <v>123930</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -1566,13 +1572,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="0">
-        <v>156933</v>
+        <v>113931</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -1583,13 +1589,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0">
-        <v>203934</v>
+        <v>143932</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -1600,13 +1606,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0">
-        <v>203935</v>
+        <v>156933</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -1617,13 +1623,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="0">
-        <v>203936</v>
+        <v>203934</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -1634,13 +1640,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0">
-        <v>203937</v>
+        <v>203935</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -1651,13 +1657,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="0">
-        <v>203938</v>
+        <v>203936</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1668,13 +1674,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0">
-        <v>203939</v>
+        <v>203937</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1685,13 +1691,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0">
-        <v>203940</v>
+        <v>203938</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1702,13 +1708,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0">
-        <v>203941</v>
+        <v>203939</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1719,13 +1725,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" s="0">
-        <v>203942</v>
+        <v>203940</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1736,13 +1742,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="0">
-        <v>203943</v>
+        <v>203941</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1753,13 +1759,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" s="0">
-        <v>203944</v>
+        <v>203942</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1770,13 +1776,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="0">
-        <v>203945</v>
+        <v>203943</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1787,13 +1793,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="0">
-        <v>203946</v>
+        <v>203944</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1804,13 +1810,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="0">
-        <v>203947</v>
+        <v>203945</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1821,13 +1827,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B36" s="0">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0">
-        <v>0</v>
+        <v>203946</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1838,13 +1844,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B37" s="0">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0">
-        <v>0</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1884,6 +1890,40 @@
         <v>0</v>
       </c>
       <c r="E39" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>数据统计</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/05/23</t>
   </si>
   <si>
     <t>2022/05/20</t>
@@ -1234,7 +1237,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1422,10 +1425,10 @@
         <v>17</v>
       </c>
       <c r="B12" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
@@ -1436,13 +1439,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -1453,13 +1456,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -1470,13 +1473,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -1487,13 +1490,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -1504,13 +1507,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -1521,13 +1524,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -1538,13 +1541,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -1555,13 +1558,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -1572,13 +1575,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -1589,13 +1592,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -1606,13 +1609,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B23" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -1623,13 +1626,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B24" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -1640,13 +1643,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -1657,13 +1660,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B26" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1674,13 +1677,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B27" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1691,13 +1694,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1708,13 +1711,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B29" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1725,13 +1728,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1742,13 +1745,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B31" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1759,13 +1762,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1776,13 +1779,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B33" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1793,13 +1796,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1810,13 +1813,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1827,13 +1830,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1844,13 +1847,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1861,13 +1864,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="0">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0">
-        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1924,6 +1927,23 @@
         <v>0</v>
       </c>
       <c r="E41" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>数据统计</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/08/23</t>
+  </si>
+  <si>
+    <t>2022/07/18</t>
+  </si>
+  <si>
+    <t>2022/06/09</t>
+  </si>
+  <si>
+    <t>2022/06/07</t>
+  </si>
+  <si>
+    <t>2022/05/26</t>
+  </si>
+  <si>
+    <t>2022/05/25</t>
   </si>
   <si>
     <t>2022/05/23</t>
@@ -1237,7 +1255,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1442,10 +1460,10 @@
         <v>18</v>
       </c>
       <c r="B13" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
       </c>
       <c r="D13" s="0">
         <v>0</v>
@@ -1456,13 +1474,13 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -1473,13 +1491,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
       </c>
       <c r="D15" s="0">
         <v>0</v>
@@ -1490,13 +1508,13 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0</v>
       </c>
       <c r="D16" s="0">
         <v>0</v>
@@ -1507,13 +1525,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B17" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -1524,13 +1542,13 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B18" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0</v>
       </c>
       <c r="D18" s="0">
         <v>0</v>
@@ -1541,13 +1559,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B19" s="0">
-        <v>233928</v>
+        <v>173922</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -1558,13 +1576,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0">
-        <v>243929</v>
+        <v>243923</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
@@ -1575,13 +1593,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B21" s="0">
-        <v>123930</v>
+        <v>213924</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
@@ -1592,13 +1610,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B22" s="0">
-        <v>113931</v>
+        <v>203525</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
@@ -1609,13 +1627,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0">
-        <v>143932</v>
+        <v>20395</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -1626,13 +1644,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B24" s="0">
-        <v>156933</v>
+        <v>123927</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -1643,13 +1661,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B25" s="0">
-        <v>203934</v>
+        <v>233928</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -1660,13 +1678,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0">
-        <v>203935</v>
+        <v>243929</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1677,13 +1695,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B27" s="0">
-        <v>203936</v>
+        <v>123930</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1694,13 +1712,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B28" s="0">
-        <v>203937</v>
+        <v>113931</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1711,13 +1729,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0">
-        <v>203938</v>
+        <v>143932</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1728,13 +1746,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0">
-        <v>203939</v>
+        <v>156933</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1745,13 +1763,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B31" s="0">
-        <v>203940</v>
+        <v>203934</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1762,13 +1780,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0">
-        <v>203941</v>
+        <v>203935</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1779,13 +1797,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B33" s="0">
-        <v>203942</v>
+        <v>203936</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1796,13 +1814,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0">
-        <v>203943</v>
+        <v>203937</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1813,13 +1831,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B35" s="0">
-        <v>203944</v>
+        <v>203938</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1830,13 +1848,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B36" s="0">
-        <v>203945</v>
+        <v>203939</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1847,13 +1865,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B37" s="0">
-        <v>203946</v>
+        <v>203940</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1864,13 +1882,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B38" s="0">
-        <v>203947</v>
+        <v>203941</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1881,13 +1899,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B39" s="0">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0">
-        <v>0</v>
+        <v>203942</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1898,13 +1916,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B40" s="0">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0">
-        <v>0</v>
+        <v>203943</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1915,13 +1933,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B41" s="0">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0">
-        <v>0</v>
+        <v>203944</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1932,18 +1950,120 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="0">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0">
-        <v>0</v>
-      </c>
-      <c r="D42" s="0">
-        <v>0</v>
-      </c>
-      <c r="E42" s="0" t="s">
+      <c r="D43" s="0">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>数据统计</t>
   </si>
@@ -39,10 +39,22 @@
     <t>当前</t>
   </si>
   <si>
-    <t>01203</t>
-  </si>
-  <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/09/23</t>
+  </si>
+  <si>
+    <t>2022/09/15</t>
+  </si>
+  <si>
+    <t>2022/09/13</t>
+  </si>
+  <si>
+    <t>2022/09/09</t>
+  </si>
+  <si>
+    <t>2022/08/25</t>
   </si>
   <si>
     <t>2022/08/23</t>
@@ -1255,7 +1267,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1290,21 +1302,21 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>203921</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
       </c>
       <c r="D3" s="0">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -1316,12 +1328,12 @@
         <v>0</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0">
         <v>0</v>
@@ -1333,12 +1345,12 @@
         <v>0</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0">
         <v>0</v>
@@ -1350,12 +1362,12 @@
         <v>0</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0">
         <v>0</v>
@@ -1367,12 +1379,12 @@
         <v>0</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -1384,12 +1396,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0">
         <v>0</v>
@@ -1401,12 +1413,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0">
         <v>0</v>
@@ -1418,12 +1430,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0">
         <v>0</v>
@@ -1435,12 +1447,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -1452,12 +1464,12 @@
         <v>0</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -1469,12 +1481,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -1486,12 +1498,12 @@
         <v>0</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="0">
         <v>0</v>
@@ -1503,12 +1515,12 @@
         <v>0</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="0">
         <v>0</v>
@@ -1520,12 +1532,12 @@
         <v>0</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
@@ -1537,12 +1549,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -1554,517 +1566,602 @@
         <v>0</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0</v>
       </c>
       <c r="D20" s="0">
         <v>0</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0</v>
       </c>
       <c r="D21" s="0">
         <v>0</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0</v>
       </c>
       <c r="D22" s="0">
         <v>0</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0">
-        <v>123927</v>
+        <v>173922</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B25" s="0">
-        <v>233928</v>
+        <v>243923</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" s="0">
-        <v>243929</v>
+        <v>213924</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0">
-        <v>123930</v>
+        <v>203525</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B28" s="0">
-        <v>113931</v>
+        <v>20395</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B29" s="0">
-        <v>143932</v>
+        <v>123927</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B30" s="0">
-        <v>156933</v>
+        <v>233928</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B31" s="0">
-        <v>203934</v>
+        <v>243929</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0">
-        <v>203935</v>
+        <v>123930</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0">
-        <v>203936</v>
+        <v>113931</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="0">
-        <v>203937</v>
+        <v>143932</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0">
-        <v>203938</v>
+        <v>156933</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0">
-        <v>203939</v>
+        <v>203934</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B37" s="0">
-        <v>203940</v>
+        <v>203935</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0">
-        <v>203941</v>
+        <v>203936</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B39" s="0">
-        <v>203942</v>
+        <v>203937</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B40" s="0">
-        <v>203943</v>
+        <v>203938</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B41" s="0">
-        <v>203944</v>
+        <v>203939</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B42" s="0">
-        <v>203945</v>
+        <v>203940</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B43" s="0">
-        <v>203946</v>
+        <v>203941</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B44" s="0">
-        <v>203947</v>
+        <v>203942</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B45" s="0">
-        <v>0</v>
-      </c>
-      <c r="C45" s="0">
-        <v>0</v>
+        <v>203943</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B46" s="0">
-        <v>0</v>
-      </c>
-      <c r="C46" s="0">
-        <v>0</v>
+        <v>203944</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B47" s="0">
-        <v>0</v>
-      </c>
-      <c r="C47" s="0">
-        <v>0</v>
+        <v>203945</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B48" s="0">
-        <v>0</v>
-      </c>
-      <c r="C48" s="0">
-        <v>0</v>
-      </c>
-      <c r="D48" s="0">
-        <v>0</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>8</v>
+      <c r="D49" s="0">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0</v>
+      </c>
+      <c r="C51" s="0">
+        <v>0</v>
+      </c>
+      <c r="D51" s="0">
+        <v>0</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0</v>
+      </c>
+      <c r="C52" s="0">
+        <v>0</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/09/27</t>
+  </si>
+  <si>
+    <t>2022/09/26</t>
   </si>
   <si>
     <t>2022/09/23</t>
@@ -1267,7 +1273,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1659,10 +1665,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0</v>
       </c>
       <c r="D24" s="0">
         <v>0</v>
@@ -1673,13 +1679,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0</v>
       </c>
       <c r="D25" s="0">
         <v>0</v>
@@ -1690,13 +1696,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="0">
-        <v>213924</v>
+        <v>173922</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1707,13 +1713,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="0">
-        <v>203525</v>
+        <v>243923</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1724,13 +1730,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0">
-        <v>20395</v>
+        <v>213924</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1741,13 +1747,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0">
-        <v>123927</v>
+        <v>203525</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1758,13 +1764,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="0">
-        <v>233928</v>
+        <v>20395</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1775,13 +1781,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="0">
-        <v>243929</v>
+        <v>123927</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1792,13 +1798,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B32" s="0">
-        <v>123930</v>
+        <v>233928</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1809,13 +1815,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" s="0">
-        <v>113931</v>
+        <v>243929</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1826,13 +1832,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0">
-        <v>143932</v>
+        <v>123930</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1843,13 +1849,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="0">
-        <v>156933</v>
+        <v>113931</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1860,13 +1866,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="0">
-        <v>203934</v>
+        <v>143932</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1877,13 +1883,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0">
-        <v>203935</v>
+        <v>156933</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1894,13 +1900,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="0">
-        <v>203936</v>
+        <v>203934</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1911,13 +1917,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B39" s="0">
-        <v>203937</v>
+        <v>203935</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1928,13 +1934,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0">
-        <v>203938</v>
+        <v>203936</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1945,13 +1951,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="0">
-        <v>203939</v>
+        <v>203937</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1962,13 +1968,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="0">
-        <v>203940</v>
+        <v>203938</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -1979,13 +1985,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="0">
-        <v>203941</v>
+        <v>203939</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -1996,13 +2002,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" s="0">
-        <v>203942</v>
+        <v>203940</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2013,13 +2019,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="0">
-        <v>203943</v>
+        <v>203941</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2030,13 +2036,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B46" s="0">
-        <v>203944</v>
+        <v>203942</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2047,13 +2053,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" s="0">
-        <v>203945</v>
+        <v>203943</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2064,13 +2070,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" s="0">
-        <v>203946</v>
+        <v>203944</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2081,13 +2087,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B49" s="0">
-        <v>203947</v>
+        <v>203945</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2098,13 +2104,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B50" s="0">
-        <v>0</v>
-      </c>
-      <c r="C50" s="0">
-        <v>0</v>
+        <v>203946</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2115,13 +2121,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B51" s="0">
-        <v>0</v>
-      </c>
-      <c r="C51" s="0">
-        <v>0</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2161,6 +2167,40 @@
         <v>0</v>
       </c>
       <c r="E53" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/10/13</t>
+  </si>
+  <si>
+    <t>2022/10/10</t>
   </si>
   <si>
     <t>2022/09/27</t>
@@ -1273,7 +1279,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1699,10 +1705,10 @@
         <v>30</v>
       </c>
       <c r="B26" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0</v>
       </c>
       <c r="D26" s="0">
         <v>0</v>
@@ -1713,13 +1719,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0</v>
       </c>
       <c r="D27" s="0">
         <v>0</v>
@@ -1730,13 +1736,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="0">
-        <v>213924</v>
+        <v>173922</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1747,13 +1753,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="0">
-        <v>203525</v>
+        <v>243923</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1764,13 +1770,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="0">
-        <v>20395</v>
+        <v>213924</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1781,13 +1787,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0">
-        <v>123927</v>
+        <v>203525</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1798,13 +1804,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="0">
-        <v>233928</v>
+        <v>20395</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1815,13 +1821,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="0">
-        <v>243929</v>
+        <v>123927</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1832,13 +1838,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0">
-        <v>123930</v>
+        <v>233928</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1849,13 +1855,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="0">
-        <v>113931</v>
+        <v>243929</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1866,13 +1872,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0">
-        <v>143932</v>
+        <v>123930</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1883,13 +1889,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" s="0">
-        <v>156933</v>
+        <v>113931</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1900,13 +1906,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="0">
-        <v>203934</v>
+        <v>143932</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1917,13 +1923,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0">
-        <v>203935</v>
+        <v>156933</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1934,13 +1940,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0">
-        <v>203936</v>
+        <v>203934</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1951,13 +1957,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" s="0">
-        <v>203937</v>
+        <v>203935</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1968,13 +1974,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0">
-        <v>203938</v>
+        <v>203936</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -1985,13 +1991,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0">
-        <v>203939</v>
+        <v>203937</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2002,13 +2008,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" s="0">
-        <v>203940</v>
+        <v>203938</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2019,13 +2025,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" s="0">
-        <v>203941</v>
+        <v>203939</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2036,13 +2042,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" s="0">
-        <v>203942</v>
+        <v>203940</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2053,13 +2059,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" s="0">
-        <v>203943</v>
+        <v>203941</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2070,13 +2076,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B48" s="0">
-        <v>203944</v>
+        <v>203942</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2087,13 +2093,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" s="0">
-        <v>203945</v>
+        <v>203943</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2104,13 +2110,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" s="0">
-        <v>203946</v>
+        <v>203944</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2121,13 +2127,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" s="0">
-        <v>203947</v>
+        <v>203945</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2138,13 +2144,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" s="0">
-        <v>0</v>
-      </c>
-      <c r="C52" s="0">
-        <v>0</v>
+        <v>203946</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2155,13 +2161,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B53" s="0">
-        <v>0</v>
-      </c>
-      <c r="C53" s="0">
-        <v>0</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2201,6 +2207,40 @@
         <v>0</v>
       </c>
       <c r="E55" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/10/19</t>
   </si>
   <si>
     <t>2022/10/13</t>
@@ -1279,7 +1282,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1739,10 +1742,10 @@
         <v>32</v>
       </c>
       <c r="B28" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0</v>
       </c>
       <c r="D28" s="0">
         <v>0</v>
@@ -1753,13 +1756,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1770,13 +1773,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B30" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1787,13 +1790,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B31" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1804,13 +1807,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B32" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1821,13 +1824,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1838,13 +1841,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B34" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1855,13 +1858,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B35" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1872,13 +1875,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B36" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1889,13 +1892,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B37" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1906,13 +1909,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B38" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1923,13 +1926,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B39" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1940,13 +1943,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B40" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1957,13 +1960,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B41" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1974,13 +1977,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B42" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -1991,13 +1994,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B43" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2008,13 +2011,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B44" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2025,13 +2028,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B45" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2042,13 +2045,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B46" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2059,13 +2062,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B47" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2076,13 +2079,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2093,13 +2096,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2110,13 +2113,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2127,13 +2130,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2144,13 +2147,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2161,13 +2164,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2178,13 +2181,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B54" s="0">
-        <v>0</v>
-      </c>
-      <c r="C54" s="0">
-        <v>0</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2241,6 +2244,23 @@
         <v>0</v>
       </c>
       <c r="E57" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/10/20</t>
   </si>
   <si>
     <t>2022/10/19</t>
@@ -1282,7 +1285,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1759,10 +1762,10 @@
         <v>33</v>
       </c>
       <c r="B29" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -1773,13 +1776,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B30" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1790,13 +1793,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B31" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1807,13 +1810,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B32" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1824,13 +1827,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B33" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1841,13 +1844,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B34" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1858,13 +1861,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B35" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1875,13 +1878,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B36" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1892,13 +1895,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B37" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1909,13 +1912,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B38" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1926,13 +1929,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B39" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1943,13 +1946,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B40" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1960,13 +1963,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B41" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1977,13 +1980,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B42" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -1994,13 +1997,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B43" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2011,13 +2014,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B44" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2028,13 +2031,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B45" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2045,13 +2048,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B46" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2062,13 +2065,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B47" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2079,13 +2082,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2096,13 +2099,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2113,13 +2116,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2130,13 +2133,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2147,13 +2150,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2164,13 +2167,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2181,13 +2184,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2198,13 +2201,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B55" s="0">
-        <v>0</v>
-      </c>
-      <c r="C55" s="0">
-        <v>0</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2261,6 +2264,23 @@
         <v>0</v>
       </c>
       <c r="E58" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/10/21</t>
   </si>
   <si>
     <t>2022/10/20</t>
@@ -1285,7 +1288,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1779,10 +1782,10 @@
         <v>34</v>
       </c>
       <c r="B30" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
+        <v>0</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0</v>
       </c>
       <c r="D30" s="0">
         <v>0</v>
@@ -1793,13 +1796,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B31" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1810,13 +1813,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B32" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1827,13 +1830,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B33" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1844,13 +1847,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B34" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1861,13 +1864,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1878,13 +1881,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B36" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1895,13 +1898,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B37" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1912,13 +1915,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B38" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1929,13 +1932,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B39" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1946,13 +1949,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B40" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1963,13 +1966,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B41" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1980,13 +1983,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B42" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -1997,13 +2000,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B43" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2014,13 +2017,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B44" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2031,13 +2034,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B45" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2048,13 +2051,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B46" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2065,13 +2068,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B47" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2082,13 +2085,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2099,13 +2102,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2116,13 +2119,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2133,13 +2136,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2150,13 +2153,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2167,13 +2170,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2184,13 +2187,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2201,13 +2204,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2218,13 +2221,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B56" s="0">
-        <v>0</v>
-      </c>
-      <c r="C56" s="0">
-        <v>0</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2281,6 +2284,23 @@
         <v>0</v>
       </c>
       <c r="E59" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/11/21</t>
   </si>
   <si>
     <t>2022/10/21</t>
@@ -1288,7 +1291,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1799,10 +1802,10 @@
         <v>35</v>
       </c>
       <c r="B31" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0</v>
       </c>
       <c r="D31" s="0">
         <v>0</v>
@@ -1813,13 +1816,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B32" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1830,13 +1833,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B33" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1847,13 +1850,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B34" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1864,13 +1867,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B35" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1881,13 +1884,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B36" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1898,13 +1901,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B37" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1915,13 +1918,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B38" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1932,13 +1935,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B39" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1949,13 +1952,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B40" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1966,13 +1969,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B41" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1983,13 +1986,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B42" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2000,13 +2003,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B43" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2017,13 +2020,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B44" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2034,13 +2037,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B45" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2051,13 +2054,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B46" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2068,13 +2071,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B47" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2085,13 +2088,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2102,13 +2105,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2119,13 +2122,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2136,13 +2139,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2153,13 +2156,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2170,13 +2173,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2187,13 +2190,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2204,13 +2207,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2221,13 +2224,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2238,13 +2241,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B57" s="0">
-        <v>0</v>
-      </c>
-      <c r="C57" s="0">
-        <v>0</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2301,6 +2304,23 @@
         <v>0</v>
       </c>
       <c r="E60" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0</v>
+      </c>
+      <c r="C61" s="0">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/06</t>
+  </si>
+  <si>
+    <t>2022/12/05</t>
   </si>
   <si>
     <t>2022/11/21</t>
@@ -782,165 +788,165 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="10" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="8" applyFill="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" applyFont="1" fillId="16" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="18" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="13" applyFill="1" borderId="4" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="20" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" applyFont="1" fillId="0" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" applyFont="1" fillId="0" borderId="7" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" applyFont="1" fillId="0" borderId="7" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="9" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="0" borderId="3" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="25" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="7" applyFill="1" borderId="2" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" applyFont="1" fillId="22" applyFill="1" borderId="6" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="26" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="6" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" applyFont="1" fillId="0" borderId="5" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" applyFont="1" fillId="0" borderId="8" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" applyFont="1" fillId="24" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="12" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="15" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="23" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="14" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="19" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="27" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="21" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="17" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="11" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="30" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="29" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="32" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="31" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="28" applyFill="1" borderId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1297,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1819,10 +1825,10 @@
         <v>36</v>
       </c>
       <c r="B32" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -1833,13 +1839,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0</v>
       </c>
       <c r="D33" s="0">
         <v>0</v>
@@ -1850,13 +1856,13 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B34" s="0">
-        <v>213924</v>
+        <v>173922</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1867,13 +1873,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0">
-        <v>203525</v>
+        <v>243923</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1884,13 +1890,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B36" s="0">
-        <v>20395</v>
+        <v>213924</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1901,13 +1907,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0">
-        <v>123927</v>
+        <v>203525</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1918,13 +1924,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0">
-        <v>233928</v>
+        <v>20395</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1935,13 +1941,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" s="0">
-        <v>243929</v>
+        <v>123927</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1952,13 +1958,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B40" s="0">
-        <v>123930</v>
+        <v>233928</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1969,13 +1975,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0">
-        <v>113931</v>
+        <v>243929</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1986,13 +1992,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="0">
-        <v>143932</v>
+        <v>123930</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2003,13 +2009,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="0">
-        <v>156933</v>
+        <v>113931</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2020,13 +2026,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="0">
-        <v>203934</v>
+        <v>143932</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2037,13 +2043,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0">
-        <v>203935</v>
+        <v>156933</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2054,13 +2060,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" s="0">
-        <v>203936</v>
+        <v>203934</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2071,13 +2077,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B47" s="0">
-        <v>203937</v>
+        <v>203935</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2088,13 +2094,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0">
-        <v>203938</v>
+        <v>203936</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2105,13 +2111,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B49" s="0">
-        <v>203939</v>
+        <v>203937</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2122,13 +2128,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" s="0">
-        <v>203940</v>
+        <v>203938</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2139,13 +2145,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" s="0">
-        <v>203941</v>
+        <v>203939</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2156,13 +2162,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B52" s="0">
-        <v>203942</v>
+        <v>203940</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2173,13 +2179,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B53" s="0">
-        <v>203943</v>
+        <v>203941</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2190,13 +2196,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B54" s="0">
-        <v>203944</v>
+        <v>203942</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2207,13 +2213,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B55" s="0">
-        <v>203945</v>
+        <v>203943</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2224,13 +2230,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="0">
-        <v>203946</v>
+        <v>203944</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2241,13 +2247,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B57" s="0">
-        <v>203947</v>
+        <v>203945</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2258,13 +2264,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="0">
-        <v>0</v>
-      </c>
-      <c r="C58" s="0">
-        <v>0</v>
+        <v>203946</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2275,13 +2281,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B59" s="0">
-        <v>0</v>
-      </c>
-      <c r="C59" s="0">
-        <v>0</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2321,6 +2327,40 @@
         <v>0</v>
       </c>
       <c r="E61" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0</v>
+      </c>
+      <c r="C63" s="0">
+        <v>0</v>
+      </c>
+      <c r="D63" s="0">
+        <v>0</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/07</t>
   </si>
   <si>
     <t>2022/12/06</t>
@@ -1297,7 +1300,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1859,10 +1862,10 @@
         <v>38</v>
       </c>
       <c r="B34" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>0</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0</v>
       </c>
       <c r="D34" s="0">
         <v>0</v>
@@ -1873,13 +1876,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B35" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1890,13 +1893,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B36" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1907,13 +1910,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B37" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1924,13 +1927,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B38" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1941,13 +1944,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B39" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1958,13 +1961,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B40" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1975,13 +1978,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B41" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1992,13 +1995,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B42" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2009,13 +2012,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2026,13 +2029,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B44" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2043,13 +2046,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B45" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2060,13 +2063,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B46" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2077,13 +2080,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B47" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2094,13 +2097,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2111,13 +2114,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2128,13 +2131,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2145,13 +2148,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2162,13 +2165,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2179,13 +2182,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2196,13 +2199,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2213,13 +2216,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2230,13 +2233,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2247,13 +2250,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2264,13 +2267,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2281,13 +2284,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2298,13 +2301,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B60" s="0">
-        <v>0</v>
-      </c>
-      <c r="C60" s="0">
-        <v>0</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2361,6 +2364,23 @@
         <v>0</v>
       </c>
       <c r="E63" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0</v>
+      </c>
+      <c r="C64" s="0">
+        <v>0</v>
+      </c>
+      <c r="D64" s="0">
+        <v>0</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/08</t>
   </si>
   <si>
     <t>2022/12/07</t>
@@ -1300,7 +1303,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1879,10 +1882,10 @@
         <v>39</v>
       </c>
       <c r="B35" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0</v>
       </c>
       <c r="D35" s="0">
         <v>0</v>
@@ -1893,13 +1896,13 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B36" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1910,13 +1913,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B37" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1927,13 +1930,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B38" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1944,13 +1947,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B39" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1961,13 +1964,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B40" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1978,13 +1981,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B41" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1995,13 +1998,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B42" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2012,13 +2015,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B43" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2029,13 +2032,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B44" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2046,13 +2049,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B45" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2063,13 +2066,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B46" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2080,13 +2083,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B47" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2097,13 +2100,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2114,13 +2117,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2131,13 +2134,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2148,13 +2151,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2165,13 +2168,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2182,13 +2185,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2199,13 +2202,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2216,13 +2219,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2233,13 +2236,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2250,13 +2253,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2267,13 +2270,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2284,13 +2287,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2301,13 +2304,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B60" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2318,13 +2321,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B61" s="0">
-        <v>0</v>
-      </c>
-      <c r="C61" s="0">
-        <v>0</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2381,6 +2384,23 @@
         <v>0</v>
       </c>
       <c r="E64" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0</v>
+      </c>
+      <c r="C65" s="0">
+        <v>0</v>
+      </c>
+      <c r="D65" s="0">
+        <v>0</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/09</t>
   </si>
   <si>
     <t>2022/12/08</t>
@@ -1303,7 +1306,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1899,10 +1902,10 @@
         <v>40</v>
       </c>
       <c r="B36" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0</v>
       </c>
       <c r="D36" s="0">
         <v>0</v>
@@ -1913,13 +1916,13 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B37" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1930,13 +1933,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B38" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1947,13 +1950,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B39" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1964,13 +1967,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B40" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1981,13 +1984,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B41" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -1998,13 +2001,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B42" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2015,13 +2018,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B43" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2032,13 +2035,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B44" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2049,13 +2052,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B45" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2066,13 +2069,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B46" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2083,13 +2086,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B47" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2100,13 +2103,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B48" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2117,13 +2120,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2134,13 +2137,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2151,13 +2154,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2168,13 +2171,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2185,13 +2188,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2202,13 +2205,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2219,13 +2222,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2236,13 +2239,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2253,13 +2256,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2270,13 +2273,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2287,13 +2290,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2304,13 +2307,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B60" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2321,13 +2324,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B61" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2338,13 +2341,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B62" s="0">
-        <v>0</v>
-      </c>
-      <c r="C62" s="0">
-        <v>0</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -2401,6 +2404,23 @@
         <v>0</v>
       </c>
       <c r="E65" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0</v>
+      </c>
+      <c r="C66" s="0">
+        <v>0</v>
+      </c>
+      <c r="D66" s="0">
+        <v>0</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/10</t>
   </si>
   <si>
     <t>2022/12/09</t>
@@ -1306,7 +1309,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1919,10 +1922,10 @@
         <v>41</v>
       </c>
       <c r="B37" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>42</v>
+        <v>0</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0</v>
       </c>
       <c r="D37" s="0">
         <v>0</v>
@@ -1933,13 +1936,13 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B38" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1950,13 +1953,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B39" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1967,13 +1970,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B40" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1984,13 +1987,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B41" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -2001,13 +2004,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B42" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2018,13 +2021,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B43" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2035,13 +2038,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B44" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2052,13 +2055,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B45" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2069,13 +2072,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B46" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2086,13 +2089,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B47" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2103,13 +2106,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B48" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2120,13 +2123,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B49" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2137,13 +2140,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2154,13 +2157,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2171,13 +2174,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2188,13 +2191,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2205,13 +2208,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2222,13 +2225,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2239,13 +2242,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2256,13 +2259,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2273,13 +2276,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2290,13 +2293,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2307,13 +2310,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B60" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2324,13 +2327,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B61" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2341,13 +2344,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B62" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -2358,13 +2361,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B63" s="0">
-        <v>0</v>
-      </c>
-      <c r="C63" s="0">
-        <v>0</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -2421,6 +2424,23 @@
         <v>0</v>
       </c>
       <c r="E66" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0</v>
+      </c>
+      <c r="C67" s="0">
+        <v>0</v>
+      </c>
+      <c r="D67" s="0">
+        <v>0</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/12</t>
   </si>
   <si>
     <t>2022/12/10</t>
@@ -1309,7 +1312,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1939,10 +1942,10 @@
         <v>42</v>
       </c>
       <c r="B38" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0</v>
       </c>
       <c r="D38" s="0">
         <v>0</v>
@@ -1953,13 +1956,13 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B39" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1970,13 +1973,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B40" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1987,13 +1990,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B41" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -2004,13 +2007,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B42" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2021,13 +2024,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B43" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2038,13 +2041,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B44" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2055,13 +2058,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B45" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2072,13 +2075,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B46" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2089,13 +2092,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B47" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2106,13 +2109,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B48" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2123,13 +2126,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B49" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2140,13 +2143,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B50" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2157,13 +2160,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2174,13 +2177,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2191,13 +2194,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2208,13 +2211,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2225,13 +2228,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2242,13 +2245,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2259,13 +2262,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2276,13 +2279,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2293,13 +2296,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2310,13 +2313,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B60" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2327,13 +2330,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B61" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2344,13 +2347,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B62" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -2361,13 +2364,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B63" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -2378,13 +2381,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B64" s="0">
-        <v>0</v>
-      </c>
-      <c r="C64" s="0">
-        <v>0</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -2441,6 +2444,23 @@
         <v>0</v>
       </c>
       <c r="E67" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="0">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0">
+        <v>0</v>
+      </c>
+      <c r="D68" s="0">
+        <v>0</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/15</t>
   </si>
   <si>
     <t>2022/12/12</t>
@@ -1312,7 +1315,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1959,10 +1962,10 @@
         <v>43</v>
       </c>
       <c r="B39" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>44</v>
+        <v>0</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -1973,13 +1976,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B40" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1990,13 +1993,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B41" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -2007,13 +2010,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B42" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2024,13 +2027,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B43" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2041,13 +2044,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B44" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2058,13 +2061,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B45" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2075,13 +2078,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B46" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2092,13 +2095,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B47" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2109,13 +2112,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="B48" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2126,13 +2129,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B49" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2143,13 +2146,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B50" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2160,13 +2163,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B51" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2177,13 +2180,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2194,13 +2197,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2211,13 +2214,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2228,13 +2231,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2245,13 +2248,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2262,13 +2265,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2279,13 +2282,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2296,13 +2299,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2313,13 +2316,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B60" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2330,13 +2333,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B61" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2347,13 +2350,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B62" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -2364,13 +2367,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B63" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -2381,13 +2384,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="B64" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -2398,13 +2401,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B65" s="0">
-        <v>0</v>
-      </c>
-      <c r="C65" s="0">
-        <v>0</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -2461,6 +2464,23 @@
         <v>0</v>
       </c>
       <c r="E68" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" s="0">
+        <v>0</v>
+      </c>
+      <c r="C69" s="0">
+        <v>0</v>
+      </c>
+      <c r="D69" s="0">
+        <v>0</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/16</t>
   </si>
   <si>
     <t>2022/12/15</t>
@@ -1315,7 +1318,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1979,10 +1982,10 @@
         <v>44</v>
       </c>
       <c r="B40" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -1993,13 +1996,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="0">
+        <v>173922</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B41" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -2010,13 +2013,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="0">
+        <v>243923</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B42" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2027,13 +2030,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="0">
+        <v>213924</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B43" s="0">
-        <v>203525</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2044,13 +2047,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="0">
+        <v>203525</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B44" s="0">
-        <v>20395</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2061,13 +2064,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="0">
+        <v>20395</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B45" s="0">
-        <v>123927</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2078,13 +2081,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="0">
+        <v>123927</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B46" s="0">
-        <v>233928</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2095,13 +2098,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="0">
+        <v>233928</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B47" s="0">
-        <v>243929</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2112,13 +2115,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="0">
+        <v>243929</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B48" s="0">
-        <v>123930</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2129,13 +2132,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="0">
+        <v>123930</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B49" s="0">
-        <v>113931</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2146,13 +2149,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="0">
+        <v>113931</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B50" s="0">
-        <v>143932</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2163,13 +2166,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="0">
+        <v>143932</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B51" s="0">
-        <v>156933</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2180,13 +2183,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="0">
+        <v>156933</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B52" s="0">
-        <v>203934</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2197,13 +2200,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="0">
+        <v>203934</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B53" s="0">
-        <v>203935</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2214,13 +2217,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="0">
+        <v>203935</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B54" s="0">
-        <v>203936</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2231,13 +2234,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="0">
+        <v>203936</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B55" s="0">
-        <v>203937</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2248,13 +2251,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="0">
+        <v>203937</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B56" s="0">
-        <v>203938</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2265,13 +2268,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="0">
+        <v>203938</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B57" s="0">
-        <v>203939</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2282,13 +2285,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="0">
+        <v>203939</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B58" s="0">
-        <v>203940</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2299,13 +2302,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="0">
+        <v>203940</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B59" s="0">
-        <v>203941</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2316,13 +2319,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="0">
+        <v>203941</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B60" s="0">
-        <v>203942</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2333,13 +2336,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="0">
+        <v>203942</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B61" s="0">
-        <v>203943</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2350,13 +2353,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="0">
+        <v>203943</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B62" s="0">
-        <v>203944</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -2367,13 +2370,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="0">
+        <v>203944</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="B63" s="0">
-        <v>203945</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -2384,13 +2387,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="0">
+        <v>203945</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B64" s="0">
-        <v>203946</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -2401,13 +2404,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="0">
+        <v>203946</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B65" s="0">
-        <v>203947</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -2418,13 +2421,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B66" s="0">
-        <v>0</v>
-      </c>
-      <c r="C66" s="0">
-        <v>0</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -2481,6 +2484,23 @@
         <v>0</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="0">
+        <v>0</v>
+      </c>
+      <c r="C70" s="0">
+        <v>0</v>
+      </c>
+      <c r="D70" s="0">
+        <v>0</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Build/Statistics.xlsx
+++ b/Build/Statistics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>数据统计</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>0%</t>
+  </si>
+  <si>
+    <t>2022/12/20</t>
+  </si>
+  <si>
+    <t>2022/12/19</t>
+  </si>
+  <si>
+    <t>2022/12/17</t>
   </si>
   <si>
     <t>2022/12/16</t>
@@ -1318,7 +1327,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr/>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -1999,10 +2008,10 @@
         <v>45</v>
       </c>
       <c r="B41" s="0">
-        <v>173922</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>46</v>
+        <v>0</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0</v>
       </c>
       <c r="D41" s="0">
         <v>0</v>
@@ -2013,13 +2022,13 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="0">
-        <v>243923</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -2030,13 +2039,13 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" s="0">
-        <v>213924</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="C43" s="0">
+        <v>0</v>
       </c>
       <c r="D43" s="0">
         <v>0</v>
@@ -2047,13 +2056,13 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44" s="0">
-        <v>203525</v>
+        <v>173922</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -2064,13 +2073,13 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" s="0">
-        <v>20395</v>
+        <v>243923</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D45" s="0">
         <v>0</v>
@@ -2081,13 +2090,13 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B46" s="0">
-        <v>123927</v>
+        <v>213924</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D46" s="0">
         <v>0</v>
@@ -2098,13 +2107,13 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B47" s="0">
-        <v>233928</v>
+        <v>203525</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D47" s="0">
         <v>0</v>
@@ -2115,13 +2124,13 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B48" s="0">
-        <v>243929</v>
+        <v>20395</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D48" s="0">
         <v>0</v>
@@ -2132,13 +2141,13 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" s="0">
-        <v>123930</v>
+        <v>123927</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D49" s="0">
         <v>0</v>
@@ -2149,13 +2158,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" s="0">
-        <v>113931</v>
+        <v>233928</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D50" s="0">
         <v>0</v>
@@ -2166,13 +2175,13 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B51" s="0">
-        <v>143932</v>
+        <v>243929</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D51" s="0">
         <v>0</v>
@@ -2183,13 +2192,13 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0">
-        <v>156933</v>
+        <v>123930</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D52" s="0">
         <v>0</v>
@@ -2200,13 +2209,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0">
-        <v>203934</v>
+        <v>113931</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -2217,13 +2226,13 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B54" s="0">
-        <v>203935</v>
+        <v>143932</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -2234,13 +2243,13 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B55" s="0">
-        <v>203936</v>
+        <v>156933</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D55" s="0">
         <v>0</v>
@@ -2251,13 +2260,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B56" s="0">
-        <v>203937</v>
+        <v>203934</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -2268,13 +2277,13 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B57" s="0">
-        <v>203938</v>
+        <v>203935</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D57" s="0">
         <v>0</v>
@@ -2285,13 +2294,13 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B58" s="0">
-        <v>203939</v>
+        <v>203936</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D58" s="0">
         <v>0</v>
@@ -2302,13 +2311,13 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B59" s="0">
-        <v>203940</v>
+        <v>203937</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D59" s="0">
         <v>0</v>
@@ -2319,13 +2328,13 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B60" s="0">
-        <v>203941</v>
+        <v>203938</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D60" s="0">
         <v>0</v>
@@ -2336,13 +2345,13 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B61" s="0">
-        <v>203942</v>
+        <v>203939</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D61" s="0">
         <v>0</v>
@@ -2353,13 +2362,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" s="0">
-        <v>203943</v>
+        <v>203940</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -2370,13 +2379,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B63" s="0">
-        <v>203944</v>
+        <v>203941</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D63" s="0">
         <v>0</v>
@@ -2387,13 +2396,13 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B64" s="0">
-        <v>203945</v>
+        <v>203942</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D64" s="0">
         <v>0</v>
@@ -2404,13 +2413,13 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B65" s="0">
-        <v>203946</v>
+        <v>203943</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D65" s="0">
         <v>0</v>
@@ -2421,13 +2430,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B66" s="0">
-        <v>203947</v>
+        <v>203944</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D66" s="0">
         <v>0</v>
@@ -2438,13 +2447,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B67" s="0">
-        <v>0</v>
-      </c>
-      <c r="C67" s="0">
-        <v>0</v>
+        <v>203945</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -2455,13 +2464,13 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
-      </c>
-      <c r="C68" s="0">
-        <v>0</v>
+        <v>203946</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="D68" s="0">
         <v>0</v>
@@ -2472,13 +2481,13 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="0">
+        <v>203947</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B69" s="0">
-        <v>0</v>
-      </c>
-      <c r="C69" s="0">
-        <v>0</v>
       </c>
       <c r="D69" s="0">
         <v>0</v>
@@ -2501,6 +2510,57 @@
         <v>0</v>
       </c>
       <c r="E70" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="0">
+        <v>0</v>
+      </c>
+      <c r="C71" s="0">
+        <v>0</v>
+      </c>
+      <c r="D71" s="0">
+        <v>0</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="0">
+        <v>0</v>
+      </c>
+      <c r="C72" s="0">
+        <v>0</v>
+      </c>
+      <c r="D72" s="0">
+        <v>0</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="0">
+        <v>0</v>
+      </c>
+      <c r="C73" s="0">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>7</v>
       </c>
     </row>
